--- a/Inflation/Input_Verbraucherpreise.xlsx
+++ b/Inflation/Input_Verbraucherpreise.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Aktien\Inflation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419ABE10-A355-43C9-9834-F8153A2BFE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB2BB8-C99F-450B-8180-8F925DFE0C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-510" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -67,6 +77,15 @@
   </si>
   <si>
     <t>Andere Waren, Dienstleistungen (12)</t>
+  </si>
+  <si>
+    <t>Geldmenge_M3</t>
+  </si>
+  <si>
+    <t>Geldmenge_M1</t>
+  </si>
+  <si>
+    <t>Geldmenge_M2</t>
   </si>
 </sst>
 </file>
@@ -121,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -182,11 +201,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -215,11 +243,119 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEFEFE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEFEFE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEFEFE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -752,23 +888,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD3FA82-7ACA-4AE0-A777-CD0CD640A24A}" name="Tabelle1" displayName="Tabelle1" ref="A1:N67" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
-  <autoFilter ref="A1:N67" xr:uid="{2FD3FA82-7ACA-4AE0-A777-CD0CD640A24A}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B2BA1950-20E2-4703-8E10-C95268E195DB}" name="Datum" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{12E750F6-BF8A-42D0-A35F-F97998C5A394}" name="Gesamt" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{DAE253F7-4155-4235-A537-367D0E6880C1}" name="Nahrungsmittel (01)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A4B89AAC-DE1B-48BA-99A6-A8DFF3507FA9}" name="Alkohol, Tabak (02)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{29A2E8AF-2DD6-482E-9EF2-B72F9ADB7290}" name="Kleidung (03)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6B22F745-2ACA-4802-A46A-E1B6C29996BE}" name="Wohnung, Wasser, Strom, Gas, Brennstoffe (04)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{EBBB7ECF-FAF4-431C-AD9D-DB6D5B225462}" name="Möbel, Haushaltsgeräte (05)" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{EFE90E2F-C1DD-4B30-94BB-38A0158159E8}" name="Gesundheit (06)" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{310F2764-1174-4C55-8722-787242BE3965}" name="Verkehr (07)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{C04F461A-FAF8-4FA0-A26C-B1D3BA5DC49A}" name="Post, Telekommunikation (08)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{BB4E842A-15DA-4FCB-8775-E520F489568F}" name="Freizeit, Unterhaltung, Kultur (09)" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{8A65A0A1-ABAC-4950-B25D-9BE28B835DAD}" name="Bildung (10)" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{3D922632-14FE-4F1E-A5EF-0854E00C5DDF}" name="Gaststätten, Beherbergung, Dienstleistungen (11)" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{FCF66058-BAAF-4B08-BFC2-30BAE790E84F}" name="Andere Waren, Dienstleistungen (12)" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD3FA82-7ACA-4AE0-A777-CD0CD640A24A}" name="Tabelle1" displayName="Tabelle1" ref="A1:Q68" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+  <autoFilter ref="A1:Q68" xr:uid="{2FD3FA82-7ACA-4AE0-A777-CD0CD640A24A}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{B2BA1950-20E2-4703-8E10-C95268E195DB}" name="Datum" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{12E750F6-BF8A-42D0-A35F-F97998C5A394}" name="Gesamt" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{DAE253F7-4155-4235-A537-367D0E6880C1}" name="Nahrungsmittel (01)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A4B89AAC-DE1B-48BA-99A6-A8DFF3507FA9}" name="Alkohol, Tabak (02)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{29A2E8AF-2DD6-482E-9EF2-B72F9ADB7290}" name="Kleidung (03)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{6B22F745-2ACA-4802-A46A-E1B6C29996BE}" name="Wohnung, Wasser, Strom, Gas, Brennstoffe (04)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{EBBB7ECF-FAF4-431C-AD9D-DB6D5B225462}" name="Möbel, Haushaltsgeräte (05)" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{EFE90E2F-C1DD-4B30-94BB-38A0158159E8}" name="Gesundheit (06)" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{310F2764-1174-4C55-8722-787242BE3965}" name="Verkehr (07)" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C04F461A-FAF8-4FA0-A26C-B1D3BA5DC49A}" name="Post, Telekommunikation (08)" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{BB4E842A-15DA-4FCB-8775-E520F489568F}" name="Freizeit, Unterhaltung, Kultur (09)" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{8A65A0A1-ABAC-4950-B25D-9BE28B835DAD}" name="Bildung (10)" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{3D922632-14FE-4F1E-A5EF-0854E00C5DDF}" name="Gaststätten, Beherbergung, Dienstleistungen (11)" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{FCF66058-BAAF-4B08-BFC2-30BAE790E84F}" name="Andere Waren, Dienstleistungen (12)" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{B895766B-B498-45D7-B14B-8CCD60EE15B2}" name="Geldmenge_M1" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{0122891D-38B5-4FEE-B708-F06D186BCBF7}" name="Geldmenge_M2" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{4CEED7AF-A611-4612-A21A-359217494C95}" name="Geldmenge_M3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1037,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,19 +1188,20 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1104,450 +1244,489 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
+        <v>44743</v>
+      </c>
+      <c r="B2" s="2">
+        <v>118.4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>123.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>119.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>113.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>120.6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2">
+        <v>120.8</v>
+      </c>
+      <c r="L2" s="2">
+        <v>106.1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>125.1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>114.6</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>44713</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>117.4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>126.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>122.4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>106.3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3">
         <v>118.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>112.6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="2">
         <v>107.2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="2">
         <v>122</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J3" s="3">
         <v>94.1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="2">
         <v>116.1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>105.9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>123.4</v>
-      </c>
-      <c r="N2" s="3">
-        <v>114.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>44682</v>
-      </c>
-      <c r="B3" s="2">
-        <v>117.3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>125.3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>121.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>107.9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>117.4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>111.6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>107</v>
-      </c>
-      <c r="I3" s="2">
-        <v>130</v>
-      </c>
-      <c r="J3" s="3">
-        <v>94.2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>111.4</v>
       </c>
       <c r="L3" s="2">
         <v>105.9</v>
       </c>
       <c r="M3" s="2">
-        <v>121.7</v>
+        <v>123.4</v>
       </c>
       <c r="N3" s="3">
-        <v>113.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>114.1</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B4" s="2">
-        <v>116.2</v>
+        <v>117.3</v>
       </c>
       <c r="C4" s="2">
-        <v>122.7</v>
+        <v>125.3</v>
       </c>
       <c r="D4" s="2">
-        <v>120.7</v>
+        <v>121.4</v>
       </c>
       <c r="E4" s="2">
-        <v>107.1</v>
+        <v>107.9</v>
       </c>
       <c r="F4" s="3">
-        <v>116.4</v>
+        <v>117.4</v>
       </c>
       <c r="G4" s="2">
-        <v>110.5</v>
+        <v>111.6</v>
       </c>
       <c r="H4" s="2">
-        <v>106.6</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2">
-        <v>128.5</v>
+        <v>130</v>
       </c>
       <c r="J4" s="3">
         <v>94.2</v>
       </c>
       <c r="K4" s="2">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="L4" s="2">
-        <v>105.7</v>
+        <v>105.9</v>
       </c>
       <c r="M4" s="2">
-        <v>120.2</v>
+        <v>121.7</v>
       </c>
       <c r="N4" s="3">
-        <v>113.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113.9</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B5" s="2">
-        <v>115.3</v>
+        <v>116.2</v>
       </c>
       <c r="C5" s="2">
-        <v>118.8</v>
+        <v>122.7</v>
       </c>
       <c r="D5" s="2">
-        <v>119.7</v>
+        <v>120.7</v>
       </c>
       <c r="E5" s="2">
-        <v>105.8</v>
+        <v>107.1</v>
       </c>
       <c r="F5" s="3">
-        <v>116.6</v>
+        <v>116.4</v>
       </c>
       <c r="G5" s="2">
-        <v>109.4</v>
+        <v>110.5</v>
       </c>
       <c r="H5" s="2">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="I5" s="2">
-        <v>129.9</v>
+        <v>128.5</v>
       </c>
       <c r="J5" s="3">
         <v>94.2</v>
       </c>
       <c r="K5" s="2">
-        <v>106.5</v>
+        <v>110.9</v>
       </c>
       <c r="L5" s="2">
         <v>105.7</v>
       </c>
       <c r="M5" s="2">
+        <v>120.2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>113.3</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B6" s="2">
+        <v>115.3</v>
+      </c>
+      <c r="C6" s="2">
         <v>118.8</v>
       </c>
-      <c r="N5" s="3">
+      <c r="D6" s="2">
+        <v>119.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>105.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>116.6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>109.4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>106.7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>106.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>105.7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>118.8</v>
+      </c>
+      <c r="N6" s="3">
         <v>112.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>44593</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>112.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>117.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>119.1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>101.2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>113.1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>108.9</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>106.3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I7" s="2">
         <v>121</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="3">
         <v>94.3</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>105.7</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L7" s="2">
         <v>105.6</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M7" s="2">
         <v>118.2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N7" s="3">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>44562</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>111.5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>116.7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>118.4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>100.9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>112.2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>107.8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>106.2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>119.1</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="3">
         <v>94.4</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>103.7</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L8" s="2">
         <v>105.5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="2">
         <v>117.5</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N8" s="3">
         <v>112.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>44531</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>111.1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>114.9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>117.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>105.4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>109.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>106.9</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>106</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>117.7</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="3">
         <v>94.1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K9" s="2">
         <v>109.8</v>
-      </c>
-      <c r="L8" s="2">
-        <v>104.8</v>
-      </c>
-      <c r="M8" s="2">
-        <v>116.7</v>
-      </c>
-      <c r="N8" s="3">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>44501</v>
-      </c>
-      <c r="B9" s="2">
-        <v>110.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>113.9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>117.2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>106.4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>109.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>106.4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>105.9</v>
-      </c>
-      <c r="I9" s="2">
-        <v>118.5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>94.2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>104.5</v>
       </c>
       <c r="L9" s="2">
         <v>104.8</v>
       </c>
       <c r="M9" s="2">
-        <v>116.4</v>
+        <v>116.7</v>
       </c>
       <c r="N9" s="3">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.6</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B10" s="2">
-        <v>110.7</v>
+        <v>110.5</v>
       </c>
       <c r="C10" s="2">
-        <v>113.3</v>
+        <v>113.9</v>
       </c>
       <c r="D10" s="2">
-        <v>117.6</v>
+        <v>117.2</v>
       </c>
       <c r="E10" s="2">
+        <v>106.4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>109.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>106.4</v>
+      </c>
+      <c r="H10" s="2">
         <v>105.9</v>
       </c>
-      <c r="F10" s="3">
-        <v>109.2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>106</v>
-      </c>
-      <c r="H10" s="2">
-        <v>105.8</v>
-      </c>
       <c r="I10" s="2">
-        <v>117.1</v>
+        <v>118.5</v>
       </c>
       <c r="J10" s="3">
         <v>94.2</v>
       </c>
       <c r="K10" s="2">
-        <v>109.9</v>
+        <v>104.5</v>
       </c>
       <c r="L10" s="2">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="M10" s="2">
         <v>116.4</v>
       </c>
       <c r="N10" s="3">
-        <v>112.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.5</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B11" s="2">
-        <v>110.1</v>
+        <v>110.7</v>
       </c>
       <c r="C11" s="2">
         <v>113.3</v>
       </c>
       <c r="D11" s="2">
-        <v>117.3</v>
+        <v>117.6</v>
       </c>
       <c r="E11" s="2">
-        <v>105.5</v>
+        <v>105.9</v>
       </c>
       <c r="F11" s="3">
-        <v>108.3</v>
+        <v>109.2</v>
       </c>
       <c r="G11" s="2">
-        <v>105.7</v>
+        <v>106</v>
       </c>
       <c r="H11" s="2">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="I11" s="2">
-        <v>114.8</v>
+        <v>117.1</v>
       </c>
       <c r="J11" s="3">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="K11" s="2">
-        <v>110.9</v>
+        <v>109.9</v>
       </c>
       <c r="L11" s="2">
         <v>104.7</v>
       </c>
       <c r="M11" s="2">
-        <v>116.1</v>
+        <v>116.4</v>
       </c>
       <c r="N11" s="3">
-        <v>112.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.3</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B12" s="2">
         <v>110.1</v>
@@ -1556,42 +1735,45 @@
         <v>113.3</v>
       </c>
       <c r="D12" s="2">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="E12" s="2">
-        <v>101.6</v>
+        <v>105.5</v>
       </c>
       <c r="F12" s="3">
-        <v>108</v>
+        <v>108.3</v>
       </c>
       <c r="G12" s="2">
-        <v>105.2</v>
+        <v>105.7</v>
       </c>
       <c r="H12" s="2">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="I12" s="2">
-        <v>115</v>
+        <v>114.8</v>
       </c>
       <c r="J12" s="3">
         <v>94.3</v>
       </c>
       <c r="K12" s="2">
-        <v>113.3</v>
+        <v>110.9</v>
       </c>
       <c r="L12" s="2">
-        <v>103.5</v>
+        <v>104.7</v>
       </c>
       <c r="M12" s="2">
-        <v>116.3</v>
+        <v>116.1</v>
       </c>
       <c r="N12" s="3">
-        <v>111.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.2</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B13" s="2">
         <v>110.1</v>
@@ -1603,462 +1785,492 @@
         <v>117.2</v>
       </c>
       <c r="E13" s="2">
+        <v>101.6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>108</v>
+      </c>
+      <c r="G13" s="2">
+        <v>105.2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>105.9</v>
+      </c>
+      <c r="I13" s="2">
+        <v>115</v>
+      </c>
+      <c r="J13" s="3">
+        <v>94.3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>113.3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>116.3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>111.9</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44378</v>
+      </c>
+      <c r="B14" s="2">
+        <v>110.1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>113.3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>117.2</v>
+      </c>
+      <c r="E14" s="2">
         <v>102.6</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>107.9</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>104.9</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>105.8</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <v>114.4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>94.2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>113.9</v>
-      </c>
-      <c r="L13" s="2">
-        <v>104.4</v>
-      </c>
-      <c r="M13" s="2">
-        <v>115.9</v>
-      </c>
-      <c r="N13" s="3">
-        <v>111.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>44348</v>
-      </c>
-      <c r="B14" s="2">
-        <v>109.1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>113</v>
-      </c>
-      <c r="D14" s="2">
-        <v>117.1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>105.1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>107.6</v>
-      </c>
-      <c r="G14" s="2">
-        <v>104.6</v>
-      </c>
-      <c r="H14" s="2">
-        <v>105.7</v>
-      </c>
-      <c r="I14" s="2">
-        <v>112.6</v>
       </c>
       <c r="J14" s="3">
         <v>94.2</v>
       </c>
       <c r="K14" s="2">
-        <v>108.1</v>
+        <v>113.9</v>
       </c>
       <c r="L14" s="2">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="M14" s="2">
-        <v>115.3</v>
+        <v>115.9</v>
       </c>
       <c r="N14" s="3">
-        <v>111.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111.6</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B15" s="2">
-        <v>108.7</v>
+        <v>109.1</v>
       </c>
       <c r="C15" s="2">
-        <v>113.2</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2">
-        <v>116.8</v>
+        <v>117.1</v>
       </c>
       <c r="E15" s="2">
+        <v>105.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>107.6</v>
+      </c>
+      <c r="G15" s="2">
         <v>104.6</v>
       </c>
-      <c r="F15" s="3">
-        <v>107.5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>104.5</v>
-      </c>
       <c r="H15" s="2">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="I15" s="2">
-        <v>111.8</v>
+        <v>112.6</v>
       </c>
       <c r="J15" s="3">
         <v>94.2</v>
       </c>
       <c r="K15" s="2">
-        <v>106.8</v>
+        <v>108.1</v>
       </c>
       <c r="L15" s="2">
         <v>104.3</v>
       </c>
       <c r="M15" s="2">
-        <v>113.5</v>
+        <v>115.3</v>
       </c>
       <c r="N15" s="3">
-        <v>111.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111.3</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B16" s="2">
-        <v>108.2</v>
+        <v>108.7</v>
       </c>
       <c r="C16" s="2">
-        <v>113.6</v>
+        <v>113.2</v>
       </c>
       <c r="D16" s="2">
         <v>116.8</v>
       </c>
       <c r="E16" s="2">
-        <v>103.6</v>
+        <v>104.6</v>
       </c>
       <c r="F16" s="3">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="G16" s="2">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="H16" s="2">
         <v>105.8</v>
       </c>
       <c r="I16" s="2">
-        <v>111.2</v>
+        <v>111.8</v>
       </c>
       <c r="J16" s="3">
         <v>94.2</v>
       </c>
       <c r="K16" s="2">
+        <v>106.8</v>
+      </c>
+      <c r="L16" s="2">
+        <v>104.3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>113.5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44287</v>
+      </c>
+      <c r="B17" s="2">
+        <v>108.2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>113.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>116.8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>103.6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>104.6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>105.8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>111.2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="K17" s="2">
         <v>104.5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>104.1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>112.9</v>
-      </c>
-      <c r="N16" s="3">
-        <v>110.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B17" s="2">
-        <v>107.5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>112.2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>115.1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>103.7</v>
-      </c>
-      <c r="F17" s="3">
-        <v>107.2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>104.5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>105.7</v>
-      </c>
-      <c r="I17" s="2">
-        <v>110.6</v>
-      </c>
-      <c r="J17" s="3">
-        <v>94.3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>101.4</v>
       </c>
       <c r="L17" s="2">
         <v>104.1</v>
       </c>
       <c r="M17" s="2">
-        <v>112.5</v>
+        <v>112.9</v>
       </c>
       <c r="N17" s="3">
+        <v>110.8</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44256</v>
+      </c>
+      <c r="B18" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>112.2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>115.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>103.7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>107.2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>105.7</v>
+      </c>
+      <c r="I18" s="2">
         <v>110.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>44228</v>
-      </c>
-      <c r="B18" s="2">
-        <v>107</v>
-      </c>
-      <c r="C18" s="2">
-        <v>112.1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>114.8</v>
-      </c>
-      <c r="E18" s="2">
-        <v>102.3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>106.9</v>
-      </c>
-      <c r="G18" s="2">
-        <v>104.7</v>
-      </c>
-      <c r="H18" s="2">
-        <v>105.5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>108.8</v>
-      </c>
       <c r="J18" s="3">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="K18" s="2">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="L18" s="2">
-        <v>103.8</v>
+        <v>104.1</v>
       </c>
       <c r="M18" s="2">
         <v>112.5</v>
       </c>
       <c r="N18" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>110.6</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B19" s="2">
-        <v>106.3</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2">
-        <v>111.3</v>
+        <v>112.1</v>
       </c>
       <c r="D19" s="2">
-        <v>114.3</v>
+        <v>114.8</v>
       </c>
       <c r="E19" s="2">
-        <v>101</v>
+        <v>102.3</v>
       </c>
       <c r="F19" s="3">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
       <c r="G19" s="2">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="H19" s="2">
-        <v>105.3</v>
+        <v>105.5</v>
       </c>
       <c r="I19" s="2">
-        <v>107.7</v>
+        <v>108.8</v>
       </c>
       <c r="J19" s="3">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="K19" s="2">
-        <v>98.4</v>
+        <v>100.9</v>
       </c>
       <c r="L19" s="2">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="M19" s="2">
         <v>112.5</v>
       </c>
       <c r="N19" s="3">
+        <v>110</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44197</v>
+      </c>
+      <c r="B20" s="2">
+        <v>106.3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>111.3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>114.3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>101</v>
+      </c>
+      <c r="F20" s="3">
+        <v>106.7</v>
+      </c>
+      <c r="G20" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>105.3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>107.7</v>
+      </c>
+      <c r="J20" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>98.4</v>
+      </c>
+      <c r="L20" s="2">
+        <v>103.6</v>
+      </c>
+      <c r="M20" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="N20" s="3">
         <v>109.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>44166</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>105.5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>108.5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>113.4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>99.9</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>105.7</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>102.5</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>104.3</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I21" s="2">
         <v>104</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <v>92.5</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="2">
         <v>104.4</v>
-      </c>
-      <c r="L20" s="2">
-        <v>102.8</v>
-      </c>
-      <c r="M20" s="2">
-        <v>112.2</v>
-      </c>
-      <c r="N20" s="3">
-        <v>108.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>44136</v>
-      </c>
-      <c r="B21" s="2">
-        <v>105</v>
-      </c>
-      <c r="C21" s="2">
-        <v>108.9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>113.7</v>
-      </c>
-      <c r="E21" s="2">
-        <v>104.4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>105.4</v>
-      </c>
-      <c r="G21" s="2">
-        <v>102</v>
-      </c>
-      <c r="H21" s="2">
-        <v>104.2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>103.1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>92.7</v>
-      </c>
-      <c r="K21" s="2">
-        <v>100</v>
       </c>
       <c r="L21" s="2">
         <v>102.8</v>
       </c>
       <c r="M21" s="2">
-        <v>111.9</v>
+        <v>112.2</v>
       </c>
       <c r="N21" s="3">
-        <v>108.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108.3</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B22" s="2">
-        <v>105.9</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2">
-        <v>108.5</v>
+        <v>108.9</v>
       </c>
       <c r="D22" s="2">
-        <v>114.5</v>
+        <v>113.7</v>
       </c>
       <c r="E22" s="2">
-        <v>104.7</v>
+        <v>104.4</v>
       </c>
       <c r="F22" s="3">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="G22" s="2">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="H22" s="2">
         <v>104.2</v>
       </c>
       <c r="I22" s="2">
-        <v>103.7</v>
+        <v>103.1</v>
       </c>
       <c r="J22" s="3">
-        <v>92.9</v>
+        <v>92.7</v>
       </c>
       <c r="K22" s="2">
-        <v>106.9</v>
+        <v>100</v>
       </c>
       <c r="L22" s="2">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="M22" s="2">
-        <v>112.2</v>
+        <v>111.9</v>
       </c>
       <c r="N22" s="3">
         <v>108.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B23" s="2">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="C23" s="2">
-        <v>108.1</v>
+        <v>108.5</v>
       </c>
       <c r="D23" s="2">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="E23" s="2">
-        <v>103.1</v>
+        <v>104.7</v>
       </c>
       <c r="F23" s="3">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="G23" s="2">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="H23" s="2">
-        <v>105.1</v>
+        <v>104.2</v>
       </c>
       <c r="I23" s="2">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="J23" s="3">
-        <v>93</v>
+        <v>92.9</v>
       </c>
       <c r="K23" s="2">
         <v>106.9</v>
@@ -2070,130 +2282,139 @@
         <v>112.2</v>
       </c>
       <c r="N23" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108.1</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B24" s="2">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="C24" s="2">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="D24" s="2">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="E24" s="2">
-        <v>98.2</v>
+        <v>103.1</v>
       </c>
       <c r="F24" s="3">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="G24" s="2">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="H24" s="2">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="I24" s="2">
-        <v>104.1</v>
+        <v>103.6</v>
       </c>
       <c r="J24" s="3">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="K24" s="2">
-        <v>109.7</v>
+        <v>106.9</v>
       </c>
       <c r="L24" s="2">
-        <v>101.5</v>
+        <v>102.7</v>
       </c>
       <c r="M24" s="2">
-        <v>112.4</v>
+        <v>112.2</v>
       </c>
       <c r="N24" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="2">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="D25" s="2">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="E25" s="2">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="F25" s="3">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="G25" s="2">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="H25" s="2">
         <v>105.2</v>
       </c>
       <c r="I25" s="2">
+        <v>104.1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>109.7</v>
+      </c>
+      <c r="L25" s="2">
+        <v>101.5</v>
+      </c>
+      <c r="M25" s="2">
+        <v>112.4</v>
+      </c>
+      <c r="N25" s="3">
+        <v>108</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>44013</v>
+      </c>
+      <c r="B26" s="2">
+        <v>106.1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>108.6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>114.6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>105.4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>101.7</v>
+      </c>
+      <c r="H26" s="2">
+        <v>105.2</v>
+      </c>
+      <c r="I26" s="2">
         <v>104.2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J26" s="3">
         <v>93.3</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="2">
         <v>111</v>
-      </c>
-      <c r="L25" s="2">
-        <v>102.4</v>
-      </c>
-      <c r="M25" s="2">
-        <v>112.2</v>
-      </c>
-      <c r="N25" s="3">
-        <v>107.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>43983</v>
-      </c>
-      <c r="B26" s="2">
-        <v>106.6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>111.6</v>
-      </c>
-      <c r="D26" s="2">
-        <v>115.3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>102.4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>105.8</v>
-      </c>
-      <c r="G26" s="2">
-        <v>103.7</v>
-      </c>
-      <c r="H26" s="2">
-        <v>106</v>
-      </c>
-      <c r="I26" s="2">
-        <v>104.3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>95.4</v>
-      </c>
-      <c r="K26" s="2">
-        <v>107</v>
       </c>
       <c r="L26" s="2">
         <v>102.4</v>
@@ -2202,385 +2423,424 @@
         <v>112.2</v>
       </c>
       <c r="N26" s="3">
-        <v>108.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>107.9</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B27" s="2">
-        <v>106</v>
+        <v>106.6</v>
       </c>
       <c r="C27" s="2">
         <v>111.6</v>
       </c>
       <c r="D27" s="2">
-        <v>114.1</v>
+        <v>115.3</v>
       </c>
       <c r="E27" s="2">
-        <v>104.8</v>
+        <v>102.4</v>
       </c>
       <c r="F27" s="3">
         <v>105.8</v>
       </c>
       <c r="G27" s="2">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="H27" s="2">
         <v>106</v>
       </c>
       <c r="I27" s="2">
+        <v>104.3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="K27" s="2">
+        <v>107</v>
+      </c>
+      <c r="L27" s="2">
+        <v>102.4</v>
+      </c>
+      <c r="M27" s="2">
+        <v>112.2</v>
+      </c>
+      <c r="N27" s="3">
+        <v>108.5</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>43952</v>
+      </c>
+      <c r="B28" s="2">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2">
+        <v>111.6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>114.1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>104.8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>106</v>
+      </c>
+      <c r="I28" s="2">
         <v>103.1</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J28" s="3">
         <v>95.5</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K28" s="2">
         <v>103.1</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L28" s="2">
         <v>102.3</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M28" s="2">
         <v>111.8</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N28" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>43922</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>106.1</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>111.5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>113.3</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>104.4</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>105.9</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>103.9</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>106.1</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I29" s="2">
         <v>103.8</v>
-      </c>
-      <c r="J28" s="3">
-        <v>95.7</v>
-      </c>
-      <c r="K28" s="2">
-        <v>103.4</v>
-      </c>
-      <c r="L28" s="2">
-        <v>102.4</v>
-      </c>
-      <c r="M28" s="2">
-        <v>111.4</v>
-      </c>
-      <c r="N28" s="3">
-        <v>107.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>43891</v>
-      </c>
-      <c r="B29" s="2">
-        <v>105.7</v>
-      </c>
-      <c r="C29" s="2">
-        <v>110.4</v>
-      </c>
-      <c r="D29" s="2">
-        <v>111.7</v>
-      </c>
-      <c r="E29" s="2">
-        <v>105.4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>105.8</v>
-      </c>
-      <c r="G29" s="2">
-        <v>103.3</v>
-      </c>
-      <c r="H29" s="2">
-        <v>105.8</v>
-      </c>
-      <c r="I29" s="2">
-        <v>105.4</v>
       </c>
       <c r="J29" s="3">
         <v>95.7</v>
       </c>
       <c r="K29" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="L29" s="2">
+        <v>102.4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>111.4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>107.6</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>43891</v>
+      </c>
+      <c r="B30" s="2">
+        <v>105.7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>110.4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>111.7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="F30" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>103.3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>105.8</v>
+      </c>
+      <c r="I30" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="J30" s="3">
+        <v>95.7</v>
+      </c>
+      <c r="K30" s="2">
         <v>99.8</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L30" s="2">
         <v>102.5</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M30" s="2">
         <v>111.1</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N30" s="3">
         <v>107.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>43862</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>105.6</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>110.5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>111.9</v>
-      </c>
-      <c r="E30" s="2">
-        <v>101.7</v>
-      </c>
-      <c r="F30" s="3">
-        <v>105.9</v>
-      </c>
-      <c r="G30" s="2">
-        <v>103.2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>105.6</v>
-      </c>
-      <c r="I30" s="2">
-        <v>106.7</v>
-      </c>
-      <c r="J30" s="3">
-        <v>95.9</v>
-      </c>
-      <c r="K30" s="2">
-        <v>99.4</v>
-      </c>
-      <c r="L30" s="2">
-        <v>102</v>
-      </c>
-      <c r="M30" s="2">
-        <v>110.9</v>
-      </c>
-      <c r="N30" s="3">
-        <v>107.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>43831</v>
-      </c>
-      <c r="B31" s="2">
-        <v>105.2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>109.2</v>
       </c>
       <c r="D31" s="2">
         <v>111.9</v>
       </c>
       <c r="E31" s="2">
-        <v>99.9</v>
+        <v>101.7</v>
       </c>
       <c r="F31" s="3">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="G31" s="2">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="H31" s="2">
-        <v>105.3</v>
+        <v>105.6</v>
       </c>
       <c r="I31" s="2">
-        <v>107.2</v>
+        <v>106.7</v>
       </c>
       <c r="J31" s="3">
         <v>95.9</v>
       </c>
       <c r="K31" s="2">
-        <v>96.8</v>
+        <v>99.4</v>
       </c>
       <c r="L31" s="2">
         <v>102</v>
       </c>
       <c r="M31" s="2">
+        <v>110.9</v>
+      </c>
+      <c r="N31" s="3">
+        <v>107.2</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>43831</v>
+      </c>
+      <c r="B32" s="2">
+        <v>105.2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>109.2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>111.9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="F32" s="3">
+        <v>106</v>
+      </c>
+      <c r="G32" s="2">
+        <v>103.3</v>
+      </c>
+      <c r="H32" s="2">
+        <v>105.3</v>
+      </c>
+      <c r="I32" s="2">
+        <v>107.2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>95.9</v>
+      </c>
+      <c r="K32" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="L32" s="2">
+        <v>102</v>
+      </c>
+      <c r="M32" s="2">
         <v>110.5</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N32" s="3">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>43800</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2">
         <v>105.8</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>108.1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>111.5</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>105.6</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>105.5</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>103.4</v>
-      </c>
-      <c r="H32" s="2">
-        <v>104.8</v>
-      </c>
-      <c r="I32" s="2">
-        <v>106.9</v>
-      </c>
-      <c r="J32" s="3">
-        <v>95.8</v>
-      </c>
-      <c r="K32" s="2">
-        <v>103.4</v>
-      </c>
-      <c r="L32" s="2">
-        <v>102.3</v>
-      </c>
-      <c r="M32" s="2">
-        <v>110.2</v>
-      </c>
-      <c r="N32" s="3">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>43770</v>
-      </c>
-      <c r="B33" s="2">
-        <v>105.3</v>
-      </c>
-      <c r="C33" s="2">
-        <v>107.6</v>
-      </c>
-      <c r="D33" s="2">
-        <v>111.8</v>
-      </c>
-      <c r="E33" s="2">
-        <v>106.7</v>
-      </c>
-      <c r="F33" s="3">
-        <v>105.4</v>
-      </c>
-      <c r="G33" s="2">
-        <v>103.2</v>
       </c>
       <c r="H33" s="2">
         <v>104.8</v>
       </c>
       <c r="I33" s="2">
-        <v>106.6</v>
+        <v>106.9</v>
       </c>
       <c r="J33" s="3">
         <v>95.8</v>
       </c>
       <c r="K33" s="2">
-        <v>99.2</v>
+        <v>103.4</v>
       </c>
       <c r="L33" s="2">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="M33" s="2">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="N33" s="3">
-        <v>106.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106.8</v>
+      </c>
+      <c r="O33">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P33">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q33">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B34" s="2">
-        <v>106.1</v>
+        <v>105.3</v>
       </c>
       <c r="C34" s="2">
-        <v>107.1</v>
+        <v>107.6</v>
       </c>
       <c r="D34" s="2">
         <v>111.8</v>
       </c>
       <c r="E34" s="2">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="F34" s="3">
         <v>105.4</v>
       </c>
       <c r="G34" s="2">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="H34" s="2">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="I34" s="2">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="J34" s="3">
         <v>95.8</v>
       </c>
       <c r="K34" s="2">
-        <v>106.9</v>
+        <v>99.2</v>
       </c>
       <c r="L34" s="2">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="M34" s="2">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="N34" s="3">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P34">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q34">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B35" s="2">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="C35" s="2">
-        <v>107.5</v>
+        <v>107.1</v>
       </c>
       <c r="D35" s="2">
-        <v>111.5</v>
+        <v>111.8</v>
       </c>
       <c r="E35" s="2">
-        <v>105.3</v>
+        <v>106.6</v>
       </c>
       <c r="F35" s="3">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="G35" s="2">
-        <v>102.7</v>
+        <v>103</v>
       </c>
       <c r="H35" s="2">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="I35" s="2">
         <v>106.5</v>
@@ -2589,7 +2849,7 @@
         <v>95.8</v>
       </c>
       <c r="K35" s="2">
-        <v>107.4</v>
+        <v>106.9</v>
       </c>
       <c r="L35" s="2">
         <v>102.3</v>
@@ -2598,115 +2858,142 @@
         <v>110.2</v>
       </c>
       <c r="N35" s="3">
-        <v>106.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106.9</v>
+      </c>
+      <c r="O35">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P35">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q35">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B36" s="2">
         <v>106</v>
       </c>
       <c r="C36" s="2">
-        <v>107.7</v>
+        <v>107.5</v>
       </c>
       <c r="D36" s="2">
-        <v>111.1</v>
+        <v>111.5</v>
       </c>
       <c r="E36" s="2">
-        <v>99.5</v>
+        <v>105.3</v>
       </c>
       <c r="F36" s="3">
-        <v>105</v>
+        <v>105.2</v>
       </c>
       <c r="G36" s="2">
-        <v>102.3</v>
+        <v>102.7</v>
       </c>
       <c r="H36" s="2">
         <v>104.6</v>
       </c>
       <c r="I36" s="2">
-        <v>107</v>
+        <v>106.5</v>
       </c>
       <c r="J36" s="3">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="K36" s="2">
-        <v>110.5</v>
+        <v>107.4</v>
       </c>
       <c r="L36" s="2">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="M36" s="2">
         <v>110.2</v>
       </c>
       <c r="N36" s="3">
-        <v>106.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106.4</v>
+      </c>
+      <c r="O36">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P36">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q36">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B37" s="2">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2">
-        <v>107.5</v>
+        <v>107.7</v>
       </c>
       <c r="D37" s="2">
         <v>111.1</v>
       </c>
       <c r="E37" s="2">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="F37" s="3">
         <v>105</v>
       </c>
       <c r="G37" s="2">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="H37" s="2">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="I37" s="2">
-        <v>107.6</v>
+        <v>107</v>
       </c>
       <c r="J37" s="3">
         <v>95.7</v>
       </c>
       <c r="K37" s="2">
-        <v>111.4</v>
+        <v>110.5</v>
       </c>
       <c r="L37" s="2">
-        <v>102.6</v>
+        <v>101.7</v>
       </c>
       <c r="M37" s="2">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="N37" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106.2</v>
+      </c>
+      <c r="O37">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P37">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q37">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B38" s="2">
-        <v>105.7</v>
+        <v>106.2</v>
       </c>
       <c r="C38" s="2">
-        <v>107.2</v>
+        <v>107.5</v>
       </c>
       <c r="D38" s="2">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="E38" s="2">
-        <v>102.9</v>
+        <v>99.4</v>
       </c>
       <c r="F38" s="3">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="G38" s="2">
         <v>102.4</v>
@@ -2718,303 +3005,366 @@
         <v>107.6</v>
       </c>
       <c r="J38" s="3">
+        <v>95.7</v>
+      </c>
+      <c r="K38" s="2">
+        <v>111.4</v>
+      </c>
+      <c r="L38" s="2">
+        <v>102.6</v>
+      </c>
+      <c r="M38" s="2">
+        <v>110.1</v>
+      </c>
+      <c r="N38" s="3">
+        <v>106</v>
+      </c>
+      <c r="O38">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P38">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q38">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>43617</v>
+      </c>
+      <c r="B39" s="2">
+        <v>105.7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>107.2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>111</v>
+      </c>
+      <c r="E39" s="2">
+        <v>102.9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>104.8</v>
+      </c>
+      <c r="G39" s="2">
+        <v>102.4</v>
+      </c>
+      <c r="H39" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="J39" s="3">
         <v>95.5</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K39" s="2">
         <v>107.3</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L39" s="2">
         <v>102.7</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M39" s="2">
         <v>109.9</v>
-      </c>
-      <c r="N38" s="3">
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>43586</v>
-      </c>
-      <c r="B39" s="2">
-        <v>105.4</v>
-      </c>
-      <c r="C39" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>110.9</v>
-      </c>
-      <c r="E39" s="2">
-        <v>104.7</v>
-      </c>
-      <c r="F39" s="3">
-        <v>104.9</v>
-      </c>
-      <c r="G39" s="2">
-        <v>102.5</v>
-      </c>
-      <c r="H39" s="2">
-        <v>104.4</v>
-      </c>
-      <c r="I39" s="2">
-        <v>108</v>
-      </c>
-      <c r="J39" s="3">
-        <v>95.7</v>
-      </c>
-      <c r="K39" s="2">
-        <v>103.1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>104.6</v>
-      </c>
-      <c r="M39" s="2">
-        <v>109.5</v>
       </c>
       <c r="N39" s="3">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P39">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q39">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B40" s="2">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="C40" s="2">
-        <v>106.6</v>
+        <v>107.1</v>
       </c>
       <c r="D40" s="2">
-        <v>110.5</v>
+        <v>110.9</v>
       </c>
       <c r="E40" s="2">
-        <v>105.3</v>
+        <v>104.7</v>
       </c>
       <c r="F40" s="3">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="G40" s="2">
         <v>102.5</v>
       </c>
       <c r="H40" s="2">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="I40" s="2">
-        <v>106.9</v>
+        <v>108</v>
       </c>
       <c r="J40" s="3">
-        <v>96.1</v>
+        <v>95.7</v>
       </c>
       <c r="K40" s="2">
-        <v>103.6</v>
+        <v>103.1</v>
       </c>
       <c r="L40" s="2">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="M40" s="2">
-        <v>108.8</v>
+        <v>109.5</v>
       </c>
       <c r="N40" s="3">
-        <v>105.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>105.8</v>
+      </c>
+      <c r="O40">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P40">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q40">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B41" s="2">
-        <v>104.2</v>
+        <v>105.2</v>
       </c>
       <c r="C41" s="2">
         <v>106.6</v>
       </c>
       <c r="D41" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>105.3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="G41" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>106.9</v>
+      </c>
+      <c r="J41" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>103.6</v>
+      </c>
+      <c r="L41" s="2">
+        <v>104.8</v>
+      </c>
+      <c r="M41" s="2">
+        <v>108.8</v>
+      </c>
+      <c r="N41" s="3">
+        <v>105.3</v>
+      </c>
+      <c r="O41">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P41">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q41">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>43525</v>
+      </c>
+      <c r="B42" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>106.6</v>
+      </c>
+      <c r="D42" s="2">
         <v>109.7</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E42" s="2">
         <v>102.8</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="3">
         <v>104.4</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="2">
         <v>102.1</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H42" s="2">
         <v>104.4</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I42" s="2">
         <v>105.1</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J42" s="3">
         <v>96.2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K42" s="2">
         <v>100.1</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L42" s="2">
         <v>104.6</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M42" s="2">
         <v>108.2</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="O42">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P42">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q42">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>43497</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="2">
         <v>103.8</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>107.2</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>109</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="2">
         <v>99.9</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>104.3</v>
-      </c>
-      <c r="G42" s="2">
-        <v>102.2</v>
-      </c>
-      <c r="H42" s="2">
-        <v>104.1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>104.5</v>
-      </c>
-      <c r="J42" s="3">
-        <v>96.3</v>
-      </c>
-      <c r="K42" s="2">
-        <v>98.6</v>
-      </c>
-      <c r="L42" s="2">
-        <v>104.4</v>
-      </c>
-      <c r="M42" s="2">
-        <v>107.9</v>
-      </c>
-      <c r="N42" s="3">
-        <v>105.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>43466</v>
-      </c>
-      <c r="B43" s="2">
-        <v>103.4</v>
-      </c>
-      <c r="C43" s="2">
-        <v>106.6</v>
-      </c>
-      <c r="D43" s="2">
-        <v>108.9</v>
-      </c>
-      <c r="E43" s="2">
-        <v>98</v>
-      </c>
-      <c r="F43" s="3">
-        <v>104.1</v>
       </c>
       <c r="G43" s="2">
         <v>102.2</v>
       </c>
       <c r="H43" s="2">
-        <v>103.9</v>
+        <v>104.1</v>
       </c>
       <c r="I43" s="2">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="J43" s="3">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="K43" s="2">
-        <v>96.8</v>
+        <v>98.6</v>
       </c>
       <c r="L43" s="2">
         <v>104.4</v>
       </c>
       <c r="M43" s="2">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="N43" s="3">
-        <v>104.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>105.1</v>
+      </c>
+      <c r="O43">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P43">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q43">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B44" s="2">
-        <v>104.2</v>
+        <v>103.4</v>
       </c>
       <c r="C44" s="2">
-        <v>106.1</v>
+        <v>106.6</v>
       </c>
       <c r="D44" s="2">
-        <v>108.7</v>
+        <v>108.9</v>
       </c>
       <c r="E44" s="2">
-        <v>103.1</v>
+        <v>98</v>
       </c>
       <c r="F44" s="3">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="G44" s="2">
         <v>102.2</v>
       </c>
       <c r="H44" s="2">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="I44" s="2">
-        <v>106.4</v>
+        <v>104.4</v>
       </c>
       <c r="J44" s="3">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="K44" s="2">
-        <v>102.1</v>
+        <v>96.8</v>
       </c>
       <c r="L44" s="2">
-        <v>102.6</v>
+        <v>104.4</v>
       </c>
       <c r="M44" s="2">
-        <v>107.4</v>
+        <v>107.6</v>
       </c>
       <c r="N44" s="3">
-        <v>104.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>104.8</v>
+      </c>
+      <c r="O44">
+        <v>152.83018867924528</v>
+      </c>
+      <c r="P44">
+        <v>119.37801498511753</v>
+      </c>
+      <c r="Q44">
+        <v>117.57041578846523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B45" s="2">
         <v>104.2</v>
       </c>
       <c r="C45" s="2">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="D45" s="2">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="E45" s="2">
-        <v>105.2</v>
+        <v>103.1</v>
       </c>
       <c r="F45" s="3">
-        <v>104.1</v>
+        <v>103.7</v>
       </c>
       <c r="G45" s="2">
         <v>102.2</v>
@@ -3023,101 +3373,119 @@
         <v>103.7</v>
       </c>
       <c r="I45" s="2">
-        <v>108</v>
+        <v>106.4</v>
       </c>
       <c r="J45" s="3">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="K45" s="2">
-        <v>98.6</v>
+        <v>102.1</v>
       </c>
       <c r="L45" s="2">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="M45" s="2">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="N45" s="3">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P45">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q45">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B46" s="2">
-        <v>104.9</v>
+        <v>104.2</v>
       </c>
       <c r="C46" s="2">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="D46" s="2">
-        <v>109.1</v>
+        <v>108.9</v>
       </c>
       <c r="E46" s="2">
-        <v>105.5</v>
+        <v>105.2</v>
       </c>
       <c r="F46" s="3">
-        <v>103.9</v>
+        <v>104.1</v>
       </c>
       <c r="G46" s="2">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="H46" s="2">
         <v>103.7</v>
       </c>
       <c r="I46" s="2">
-        <v>107.1</v>
+        <v>108</v>
       </c>
       <c r="J46" s="3">
         <v>96.2</v>
       </c>
       <c r="K46" s="2">
-        <v>106.3</v>
+        <v>98.6</v>
       </c>
       <c r="L46" s="2">
         <v>102.5</v>
       </c>
       <c r="M46" s="2">
-        <v>107.3</v>
+        <v>107.1</v>
       </c>
       <c r="N46" s="3">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P46">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q46">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B47" s="2">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="C47" s="2">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="D47" s="2">
-        <v>108.7</v>
+        <v>109.1</v>
       </c>
       <c r="E47" s="2">
-        <v>104.4</v>
+        <v>105.5</v>
       </c>
       <c r="F47" s="3">
-        <v>103.5</v>
+        <v>103.9</v>
       </c>
       <c r="G47" s="2">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="H47" s="2">
         <v>103.7</v>
       </c>
       <c r="I47" s="2">
-        <v>106.7</v>
+        <v>107.1</v>
       </c>
       <c r="J47" s="3">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="K47" s="2">
-        <v>106.7</v>
+        <v>106.3</v>
       </c>
       <c r="L47" s="2">
         <v>102.5</v>
@@ -3126,690 +3494,834 @@
         <v>107.3</v>
       </c>
       <c r="N47" s="3">
-        <v>103.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>104.1</v>
+      </c>
+      <c r="O47">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P47">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q47">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B48" s="2">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="C48" s="2">
-        <v>105.3</v>
+        <v>106.3</v>
       </c>
       <c r="D48" s="2">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="E48" s="2">
-        <v>98.2</v>
+        <v>104.4</v>
       </c>
       <c r="F48" s="3">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="G48" s="2">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="H48" s="2">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="I48" s="2">
-        <v>106</v>
+        <v>106.7</v>
       </c>
       <c r="J48" s="3">
         <v>96.3</v>
       </c>
       <c r="K48" s="2">
-        <v>110.3</v>
+        <v>106.7</v>
       </c>
       <c r="L48" s="2">
-        <v>100.6</v>
+        <v>102.5</v>
       </c>
       <c r="M48" s="2">
         <v>107.3</v>
       </c>
       <c r="N48" s="3">
-        <v>103.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103.9</v>
+      </c>
+      <c r="O48">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P48">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q48">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B49" s="2">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="C49" s="2">
-        <v>105.6</v>
+        <v>105.3</v>
       </c>
       <c r="D49" s="2">
         <v>108.8</v>
       </c>
       <c r="E49" s="2">
-        <v>95.9</v>
+        <v>98.2</v>
       </c>
       <c r="F49" s="3">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="G49" s="2">
         <v>101.5</v>
       </c>
       <c r="H49" s="2">
+        <v>103.6</v>
+      </c>
+      <c r="I49" s="2">
+        <v>106</v>
+      </c>
+      <c r="J49" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="K49" s="2">
+        <v>110.3</v>
+      </c>
+      <c r="L49" s="2">
+        <v>100.6</v>
+      </c>
+      <c r="M49" s="2">
+        <v>107.3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>103.7</v>
+      </c>
+      <c r="O49">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P49">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q49">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>43282</v>
+      </c>
+      <c r="B50" s="2">
+        <v>104.4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>105.6</v>
+      </c>
+      <c r="D50" s="2">
+        <v>108.8</v>
+      </c>
+      <c r="E50" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="F50" s="3">
+        <v>103</v>
+      </c>
+      <c r="G50" s="2">
+        <v>101.5</v>
+      </c>
+      <c r="H50" s="2">
         <v>103.5</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I50" s="2">
         <v>105.8</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J50" s="3">
         <v>96.5</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K50" s="2">
         <v>110.8</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L50" s="2">
         <v>104.8</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M50" s="2">
         <v>107.2</v>
-      </c>
-      <c r="N49" s="3">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>43252</v>
-      </c>
-      <c r="B50" s="2">
-        <v>104</v>
-      </c>
-      <c r="C50" s="2">
-        <v>106.1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>108.7</v>
-      </c>
-      <c r="E50" s="2">
-        <v>101.3</v>
-      </c>
-      <c r="F50" s="3">
-        <v>102.9</v>
-      </c>
-      <c r="G50" s="2">
-        <v>101.8</v>
-      </c>
-      <c r="H50" s="2">
-        <v>103.4</v>
-      </c>
-      <c r="I50" s="2">
-        <v>105.4</v>
-      </c>
-      <c r="J50" s="3">
-        <v>96.6</v>
-      </c>
-      <c r="K50" s="2">
-        <v>105</v>
-      </c>
-      <c r="L50" s="2">
-        <v>104.9</v>
-      </c>
-      <c r="M50" s="2">
-        <v>106.9</v>
       </c>
       <c r="N50" s="3">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P50">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q50">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
+        <v>43252</v>
+      </c>
+      <c r="B51" s="2">
+        <v>104</v>
+      </c>
+      <c r="C51" s="2">
+        <v>106.1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>108.7</v>
+      </c>
+      <c r="E51" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="F51" s="3">
+        <v>102.9</v>
+      </c>
+      <c r="G51" s="2">
+        <v>101.8</v>
+      </c>
+      <c r="H51" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="I51" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="J51" s="3">
+        <v>96.6</v>
+      </c>
+      <c r="K51" s="2">
+        <v>105</v>
+      </c>
+      <c r="L51" s="2">
+        <v>104.9</v>
+      </c>
+      <c r="M51" s="2">
+        <v>106.9</v>
+      </c>
+      <c r="N51" s="3">
+        <v>103.6</v>
+      </c>
+      <c r="O51">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P51">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q51">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
         <v>43221</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2">
         <v>103.9</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>106.2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>108</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="2">
         <v>103.5</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="3">
         <v>102.8</v>
-      </c>
-      <c r="G51" s="2">
-        <v>101.7</v>
-      </c>
-      <c r="H51" s="2">
-        <v>103.3</v>
-      </c>
-      <c r="I51" s="2">
-        <v>104.8</v>
-      </c>
-      <c r="J51" s="3">
-        <v>96.7</v>
-      </c>
-      <c r="K51" s="2">
-        <v>104.7</v>
-      </c>
-      <c r="L51" s="2">
-        <v>104.8</v>
-      </c>
-      <c r="M51" s="2">
-        <v>106.6</v>
-      </c>
-      <c r="N51" s="3">
-        <v>103.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>43191</v>
-      </c>
-      <c r="B52" s="2">
-        <v>103.1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>106.1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>107.8</v>
-      </c>
-      <c r="E52" s="2">
-        <v>104.2</v>
-      </c>
-      <c r="F52" s="3">
-        <v>102.5</v>
       </c>
       <c r="G52" s="2">
         <v>101.7</v>
       </c>
       <c r="H52" s="2">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="I52" s="2">
-        <v>103.5</v>
+        <v>104.8</v>
       </c>
       <c r="J52" s="3">
         <v>96.7</v>
       </c>
       <c r="K52" s="2">
-        <v>100.3</v>
+        <v>104.7</v>
       </c>
       <c r="L52" s="2">
         <v>104.8</v>
       </c>
       <c r="M52" s="2">
-        <v>106.1</v>
+        <v>106.6</v>
       </c>
       <c r="N52" s="3">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P52">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q52">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B53" s="2">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="C53" s="2">
         <v>106.1</v>
       </c>
       <c r="D53" s="2">
-        <v>106.5</v>
+        <v>107.8</v>
       </c>
       <c r="E53" s="2">
-        <v>103.5</v>
+        <v>104.2</v>
       </c>
       <c r="F53" s="3">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="G53" s="2">
         <v>101.7</v>
       </c>
       <c r="H53" s="2">
-        <v>103.4</v>
+        <v>103.2</v>
       </c>
       <c r="I53" s="2">
-        <v>102.5</v>
+        <v>103.5</v>
       </c>
       <c r="J53" s="3">
         <v>96.7</v>
       </c>
       <c r="K53" s="2">
+        <v>100.3</v>
+      </c>
+      <c r="L53" s="2">
+        <v>104.8</v>
+      </c>
+      <c r="M53" s="2">
+        <v>106.1</v>
+      </c>
+      <c r="N53" s="3">
+        <v>103.5</v>
+      </c>
+      <c r="O53">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P53">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q53">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>43160</v>
+      </c>
+      <c r="B54" s="2">
+        <v>102.9</v>
+      </c>
+      <c r="C54" s="2">
+        <v>106.1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>106.5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>102.3</v>
+      </c>
+      <c r="G54" s="2">
+        <v>101.7</v>
+      </c>
+      <c r="H54" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="I54" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>96.7</v>
+      </c>
+      <c r="K54" s="2">
         <v>101</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L54" s="2">
         <v>104.6</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M54" s="2">
         <v>105.8</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N54" s="3">
         <v>103.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="O54">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P54">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q54">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
         <v>43132</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B55" s="2">
         <v>102.3</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>105.8</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D55" s="2">
         <v>106.2</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E55" s="2">
         <v>98.5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>102.2</v>
-      </c>
-      <c r="G54" s="2">
-        <v>101.5</v>
-      </c>
-      <c r="H54" s="2">
-        <v>103.1</v>
-      </c>
-      <c r="I54" s="2">
-        <v>102.9</v>
-      </c>
-      <c r="J54" s="3">
-        <v>97</v>
-      </c>
-      <c r="K54" s="2">
-        <v>98.6</v>
-      </c>
-      <c r="L54" s="2">
-        <v>104.4</v>
-      </c>
-      <c r="M54" s="2">
-        <v>105.5</v>
-      </c>
-      <c r="N54" s="3">
-        <v>103.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>43101</v>
-      </c>
-      <c r="B55" s="2">
-        <v>102</v>
-      </c>
-      <c r="C55" s="2">
-        <v>105.9</v>
-      </c>
-      <c r="D55" s="2">
-        <v>106</v>
-      </c>
-      <c r="E55" s="2">
-        <v>96.6</v>
       </c>
       <c r="F55" s="3">
         <v>102.2</v>
       </c>
       <c r="G55" s="2">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="H55" s="2">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="I55" s="2">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="J55" s="3">
-        <v>97.1</v>
+        <v>97</v>
       </c>
       <c r="K55" s="2">
-        <v>96.6</v>
+        <v>98.6</v>
       </c>
       <c r="L55" s="2">
         <v>104.4</v>
       </c>
       <c r="M55" s="2">
-        <v>105.3</v>
+        <v>105.5</v>
       </c>
       <c r="N55" s="3">
-        <v>102.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103.1</v>
+      </c>
+      <c r="O55">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P55">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q55">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B56" s="2">
-        <v>102.6</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2">
-        <v>105</v>
+        <v>105.9</v>
       </c>
       <c r="D56" s="2">
         <v>106</v>
       </c>
       <c r="E56" s="2">
+        <v>96.6</v>
+      </c>
+      <c r="F56" s="3">
+        <v>102.2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>101.6</v>
+      </c>
+      <c r="H56" s="2">
+        <v>103</v>
+      </c>
+      <c r="I56" s="2">
+        <v>102.7</v>
+      </c>
+      <c r="J56" s="3">
+        <v>97.1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>96.6</v>
+      </c>
+      <c r="L56" s="2">
+        <v>104.4</v>
+      </c>
+      <c r="M56" s="2">
+        <v>105.3</v>
+      </c>
+      <c r="N56" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="O56">
+        <v>129.06322409798082</v>
+      </c>
+      <c r="P56">
+        <v>115.58041670943243</v>
+      </c>
+      <c r="Q56">
+        <v>114.05441655489557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>43070</v>
+      </c>
+      <c r="B57" s="2">
+        <v>102.6</v>
+      </c>
+      <c r="C57" s="2">
+        <v>105</v>
+      </c>
+      <c r="D57" s="2">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2">
         <v>102.4</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="3">
         <v>101.9</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>101.4</v>
-      </c>
-      <c r="H56" s="2">
-        <v>102.7</v>
-      </c>
-      <c r="I56" s="2">
-        <v>102.9</v>
-      </c>
-      <c r="J56" s="3">
-        <v>97</v>
-      </c>
-      <c r="K56" s="2">
-        <v>102.1</v>
-      </c>
-      <c r="L56" s="2">
-        <v>103.3</v>
-      </c>
-      <c r="M56" s="2">
-        <v>105</v>
-      </c>
-      <c r="N56" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>43040</v>
-      </c>
-      <c r="B57" s="2">
-        <v>102.1</v>
-      </c>
-      <c r="C57" s="2">
-        <v>104.3</v>
-      </c>
-      <c r="D57" s="2">
-        <v>105.8</v>
-      </c>
-      <c r="E57" s="2">
-        <v>103.8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>101.8</v>
-      </c>
-      <c r="G57" s="2">
-        <v>101.3</v>
       </c>
       <c r="H57" s="2">
         <v>102.7</v>
       </c>
       <c r="I57" s="2">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
       <c r="J57" s="3">
         <v>97</v>
       </c>
       <c r="K57" s="2">
-        <v>98.5</v>
+        <v>102.1</v>
       </c>
       <c r="L57" s="2">
         <v>103.3</v>
       </c>
       <c r="M57" s="2">
-        <v>104.7</v>
+        <v>105</v>
       </c>
       <c r="N57" s="3">
+        <v>102</v>
+      </c>
+      <c r="O57">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P57">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q57">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>43040</v>
+      </c>
+      <c r="B58" s="2">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>43009</v>
-      </c>
-      <c r="B58" s="2">
-        <v>102.5</v>
-      </c>
       <c r="C58" s="2">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D58" s="2">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="E58" s="2">
-        <v>104.5</v>
+        <v>103.8</v>
       </c>
       <c r="F58" s="3">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="G58" s="2">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="H58" s="2">
         <v>102.7</v>
       </c>
       <c r="I58" s="2">
-        <v>102</v>
+        <v>102.6</v>
       </c>
       <c r="J58" s="3">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="K58" s="2">
-        <v>103.3</v>
+        <v>98.5</v>
       </c>
       <c r="L58" s="2">
         <v>103.3</v>
       </c>
       <c r="M58" s="2">
-        <v>105</v>
+        <v>104.7</v>
       </c>
       <c r="N58" s="3">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102.1</v>
+      </c>
+      <c r="O58">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P58">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q58">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B59" s="2">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="C59" s="2">
-        <v>103.4</v>
+        <v>104.2</v>
       </c>
       <c r="D59" s="2">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="E59" s="2">
-        <v>103.7</v>
+        <v>104.5</v>
       </c>
       <c r="F59" s="3">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
       <c r="G59" s="2">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="H59" s="2">
         <v>102.7</v>
       </c>
       <c r="I59" s="2">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="J59" s="3">
         <v>97.2</v>
       </c>
       <c r="K59" s="2">
-        <v>105.4</v>
+        <v>103.3</v>
       </c>
       <c r="L59" s="2">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="M59" s="2">
-        <v>105.2</v>
+        <v>105</v>
       </c>
       <c r="N59" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102.2</v>
+      </c>
+      <c r="O59">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P59">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q59">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B60" s="2">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="C60" s="2">
-        <v>102.9</v>
+        <v>103.4</v>
       </c>
       <c r="D60" s="2">
         <v>105.5</v>
       </c>
       <c r="E60" s="2">
-        <v>98.7</v>
+        <v>103.7</v>
       </c>
       <c r="F60" s="3">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="G60" s="2">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="H60" s="2">
         <v>102.7</v>
       </c>
       <c r="I60" s="2">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="J60" s="3">
         <v>97.2</v>
       </c>
       <c r="K60" s="2">
-        <v>108.5</v>
+        <v>105.4</v>
       </c>
       <c r="L60" s="2">
-        <v>102.3</v>
+        <v>103.2</v>
       </c>
       <c r="M60" s="2">
         <v>105.2</v>
       </c>
       <c r="N60" s="3">
+        <v>103</v>
+      </c>
+      <c r="O60">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P60">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q60">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>42948</v>
+      </c>
+      <c r="B61" s="2">
+        <v>102.6</v>
+      </c>
+      <c r="C61" s="2">
         <v>102.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>42917</v>
-      </c>
-      <c r="B61" s="2">
-        <v>102.5</v>
-      </c>
-      <c r="C61" s="2">
-        <v>103</v>
-      </c>
       <c r="D61" s="2">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="E61" s="2">
-        <v>97.1</v>
+        <v>98.7</v>
       </c>
       <c r="F61" s="3">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="G61" s="2">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="H61" s="2">
         <v>102.7</v>
       </c>
       <c r="I61" s="2">
+        <v>101.9</v>
+      </c>
+      <c r="J61" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="K61" s="2">
+        <v>108.5</v>
+      </c>
+      <c r="L61" s="2">
+        <v>102.3</v>
+      </c>
+      <c r="M61" s="2">
+        <v>105.2</v>
+      </c>
+      <c r="N61" s="3">
+        <v>102.9</v>
+      </c>
+      <c r="O61">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P61">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q61">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>42917</v>
+      </c>
+      <c r="B62" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>103</v>
+      </c>
+      <c r="D62" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="E62" s="2">
+        <v>97.1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>101</v>
+      </c>
+      <c r="H62" s="2">
+        <v>102.7</v>
+      </c>
+      <c r="I62" s="2">
         <v>101.7</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J62" s="3">
         <v>97.4</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K62" s="2">
         <v>109</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L62" s="2">
         <v>102.4</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M62" s="2">
         <v>105.1</v>
-      </c>
-      <c r="N61" s="3">
-        <v>102.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>42887</v>
-      </c>
-      <c r="B62" s="4">
-        <v>102.1</v>
-      </c>
-      <c r="C62" s="4">
-        <v>102.7</v>
-      </c>
-      <c r="D62" s="4">
-        <v>105.1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="F62" s="5">
-        <v>101</v>
-      </c>
-      <c r="G62" s="2">
-        <v>101.1</v>
-      </c>
-      <c r="H62" s="2">
-        <v>102.6</v>
-      </c>
-      <c r="I62" s="2">
-        <v>101.4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>97.7</v>
-      </c>
-      <c r="K62" s="2">
-        <v>104.8</v>
-      </c>
-      <c r="L62" s="2">
-        <v>102.5</v>
-      </c>
-      <c r="M62" s="2">
-        <v>104.6</v>
       </c>
       <c r="N62" s="3">
         <v>102.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P62">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q62">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
-        <v>42856</v>
-      </c>
-      <c r="B63" s="2">
-        <v>101.8</v>
-      </c>
-      <c r="C63" s="2">
-        <v>102.9</v>
-      </c>
-      <c r="D63" s="2">
-        <v>104.5</v>
-      </c>
-      <c r="E63" s="2">
-        <v>103.3</v>
-      </c>
-      <c r="F63" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B63" s="4">
+        <v>102.1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>102.7</v>
+      </c>
+      <c r="D63" s="4">
+        <v>105.1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>100.6</v>
+      </c>
+      <c r="F63" s="5">
+        <v>101</v>
+      </c>
+      <c r="G63" s="2">
         <v>101.1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>101</v>
       </c>
       <c r="H63" s="2">
         <v>102.6</v>
@@ -3821,21 +4333,30 @@
         <v>97.7</v>
       </c>
       <c r="K63" s="2">
-        <v>101.1</v>
+        <v>104.8</v>
       </c>
       <c r="L63" s="2">
         <v>102.5</v>
       </c>
       <c r="M63" s="2">
-        <v>104.2</v>
+        <v>104.6</v>
       </c>
       <c r="N63" s="3">
-        <v>102.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102.8</v>
+      </c>
+      <c r="O63">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P63">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q63">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B64" s="2">
         <v>101.8</v>
@@ -3844,10 +4365,10 @@
         <v>102.9</v>
       </c>
       <c r="D64" s="2">
-        <v>104</v>
+        <v>104.5</v>
       </c>
       <c r="E64" s="2">
-        <v>104</v>
+        <v>103.3</v>
       </c>
       <c r="F64" s="3">
         <v>101.1</v>
@@ -3856,157 +4377,246 @@
         <v>101</v>
       </c>
       <c r="H64" s="2">
+        <v>102.6</v>
+      </c>
+      <c r="I64" s="2">
+        <v>101.4</v>
+      </c>
+      <c r="J64" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="K64" s="2">
+        <v>101.1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="M64" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="N64" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="O64">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P64">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q64">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>42826</v>
+      </c>
+      <c r="B65" s="2">
+        <v>101.8</v>
+      </c>
+      <c r="C65" s="2">
+        <v>102.9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>104</v>
+      </c>
+      <c r="E65" s="2">
+        <v>104</v>
+      </c>
+      <c r="F65" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>101</v>
+      </c>
+      <c r="H65" s="2">
         <v>102.4</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I65" s="2">
         <v>102</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J65" s="3">
         <v>97.9</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K65" s="2">
         <v>100.7</v>
-      </c>
-      <c r="L64" s="2">
-        <v>102.4</v>
-      </c>
-      <c r="M64" s="2">
-        <v>103.8</v>
-      </c>
-      <c r="N64" s="3">
-        <v>102.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>42795</v>
-      </c>
-      <c r="B65" s="2">
-        <v>101.4</v>
-      </c>
-      <c r="C65" s="2">
-        <v>103.4</v>
-      </c>
-      <c r="D65" s="2">
-        <v>103.1</v>
-      </c>
-      <c r="E65" s="2">
-        <v>103.8</v>
-      </c>
-      <c r="F65" s="3">
-        <v>100.9</v>
-      </c>
-      <c r="G65" s="2">
-        <v>101.1</v>
-      </c>
-      <c r="H65" s="2">
-        <v>102.3</v>
-      </c>
-      <c r="I65" s="2">
-        <v>101.3</v>
-      </c>
-      <c r="J65" s="3">
-        <v>98</v>
-      </c>
-      <c r="K65" s="2">
-        <v>98.5</v>
       </c>
       <c r="L65" s="2">
         <v>102.4</v>
       </c>
       <c r="M65" s="2">
+        <v>103.8</v>
+      </c>
+      <c r="N65" s="3">
+        <v>102.6</v>
+      </c>
+      <c r="O65">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P65">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q65">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>42795</v>
+      </c>
+      <c r="B66" s="2">
+        <v>101.4</v>
+      </c>
+      <c r="C66" s="2">
         <v>103.4</v>
-      </c>
-      <c r="N65" s="3">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>42767</v>
-      </c>
-      <c r="B66" s="2">
-        <v>101.2</v>
-      </c>
-      <c r="C66" s="2">
-        <v>105.2</v>
       </c>
       <c r="D66" s="2">
         <v>103.1</v>
       </c>
       <c r="E66" s="2">
-        <v>97.4</v>
+        <v>103.8</v>
       </c>
       <c r="F66" s="3">
         <v>100.9</v>
       </c>
       <c r="G66" s="2">
+        <v>101.1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>102.3</v>
+      </c>
+      <c r="I66" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="J66" s="3">
+        <v>98</v>
+      </c>
+      <c r="K66" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="L66" s="2">
+        <v>102.4</v>
+      </c>
+      <c r="M66" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="N66" s="3">
+        <v>102.2</v>
+      </c>
+      <c r="O66">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P66">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q66">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>42767</v>
+      </c>
+      <c r="B67" s="2">
+        <v>101.2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>105.2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>103.1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>97.4</v>
+      </c>
+      <c r="F67" s="3">
         <v>100.9</v>
       </c>
-      <c r="H66" s="2">
+      <c r="G67" s="2">
+        <v>100.9</v>
+      </c>
+      <c r="H67" s="2">
         <v>102</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I67" s="2">
         <v>101.6</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J67" s="3">
         <v>98.2</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K67" s="2">
         <v>97.7</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L67" s="2">
         <v>102.3</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M67" s="2">
         <v>103.2</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N67" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
+      <c r="O67">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P67">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q67">
+        <v>109.41751293351216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
         <v>42736</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B68" s="6">
         <v>100.6</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C68" s="6">
         <v>103.2</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <v>103</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>97.3</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>100.8</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="6">
         <v>100.8</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="6">
         <v>101.9</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>101.3</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J68" s="7">
         <v>98.4</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K68" s="6">
         <v>95.5</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L68" s="6">
         <v>102.2</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M68" s="6">
         <v>102.9</v>
       </c>
-      <c r="N67" s="7">
+      <c r="N68" s="7">
         <v>101.9</v>
+      </c>
+      <c r="O68">
+        <v>119.6458126448196</v>
+      </c>
+      <c r="P68">
+        <v>110.16114133223853</v>
+      </c>
+      <c r="Q68">
+        <v>109.41751293351216</v>
       </c>
     </row>
   </sheetData>
